--- a/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-iOS-QA.xlsx
+++ b/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-iOS-QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/Downloads/tps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/UCSD/Dev/Flutter/campusmobile/scripts/codemagic-ci/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5F6752-4D64-FF4F-892C-B8276A60C607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAD254F-CA90-5D47-9722-361AA436FF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37440" yWindow="1040" windowWidth="48600" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31620" yWindow="1040" windowWidth="48600" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression Test Plan" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>PASS:</t>
-  </si>
-  <si>
-    <t>Feedback feature sends an email and the email is received</t>
   </si>
   <si>
     <t>FAIL:</t>
@@ -260,6 +257,9 @@
   </si>
   <si>
     <t>iOS</t>
+  </si>
+  <si>
+    <t>Mobile App Support request creates SNOW ticket and email confirmation received</t>
   </si>
 </sst>
 </file>
@@ -1211,8 +1211,8 @@
   </sheetPr>
   <dimension ref="A1:V982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="11"/>
@@ -1462,13 +1462,13 @@
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="49"/>
       <c r="D9" s="22"/>
       <c r="E9" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="22"/>
@@ -1490,13 +1490,13 @@
     </row>
     <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="49"/>
       <c r="D10" s="22"/>
       <c r="E10" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="22"/>
@@ -1518,13 +1518,13 @@
     </row>
     <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="49"/>
       <c r="D11" s="22"/>
       <c r="E11" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="22"/>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="50"/>
@@ -1572,13 +1572,13 @@
     </row>
     <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="51"/>
       <c r="D13" s="22"/>
       <c r="E13" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="22"/>
@@ -1600,13 +1600,13 @@
     </row>
     <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="43"/>
       <c r="C14" s="50"/>
       <c r="D14" s="22"/>
       <c r="E14" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
@@ -1628,13 +1628,13 @@
     </row>
     <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="43"/>
       <c r="C15" s="50"/>
       <c r="D15" s="22"/>
       <c r="E15" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
@@ -1656,13 +1656,13 @@
     </row>
     <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="43"/>
       <c r="C16" s="50"/>
       <c r="D16" s="22"/>
       <c r="E16" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
@@ -1684,13 +1684,13 @@
     </row>
     <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="42"/>
       <c r="C17" s="51"/>
       <c r="D17" s="22"/>
       <c r="E17" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="1"/>
@@ -1711,13 +1711,13 @@
     </row>
     <row r="18" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="43"/>
       <c r="C18" s="50"/>
       <c r="D18" s="22"/>
       <c r="E18" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="50"/>
       <c r="D19" s="1"/>
       <c r="E19" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1767,13 +1767,13 @@
     </row>
     <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="43"/>
       <c r="C20" s="50"/>
       <c r="D20" s="1"/>
       <c r="E20" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="50"/>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="43"/>
       <c r="C22" s="50"/>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="43"/>
       <c r="C23" s="50"/>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="43"/>
       <c r="C24" s="50"/>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="43"/>
       <c r="C25" s="50"/>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="43"/>
       <c r="C26" s="50"/>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="43"/>
       <c r="C27" s="50"/>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="43"/>
       <c r="C28" s="50"/>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="43"/>
       <c r="C29" s="50"/>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="43"/>
       <c r="C30" s="50"/>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="43"/>
       <c r="C31" s="50"/>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="43"/>
       <c r="C32" s="50"/>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="43"/>
       <c r="C33" s="50"/>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="43"/>
       <c r="C34" s="50"/>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="43"/>
       <c r="C35" s="50"/>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="43"/>
       <c r="C36" s="50"/>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="43"/>
       <c r="C37" s="50"/>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="43"/>
       <c r="C38" s="50"/>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" s="43"/>
       <c r="C39" s="50"/>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="42"/>
       <c r="C40" s="51"/>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" s="43"/>
       <c r="C41" s="50"/>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A42" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="43"/>
       <c r="C42" s="50"/>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" s="43"/>
       <c r="C43" s="50"/>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" s="43"/>
       <c r="C44" s="50"/>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" s="43"/>
       <c r="C45" s="50"/>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" s="43"/>
       <c r="C46" s="50"/>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" s="43"/>
       <c r="C47" s="50"/>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A48" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" s="42"/>
       <c r="C48" s="51"/>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="49" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" s="43"/>
       <c r="C49" s="50"/>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="50" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" s="43"/>
       <c r="C50" s="50"/>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="51" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" s="43"/>
       <c r="C51" s="50"/>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="52" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" s="42"/>
       <c r="C52" s="51"/>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="53" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53" s="43"/>
       <c r="C53" s="50"/>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="54" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" s="43"/>
       <c r="C54" s="50"/>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="55" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A55" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B55" s="43"/>
       <c r="C55" s="50"/>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="56" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A56" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B56" s="43"/>
       <c r="C56" s="50"/>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="57" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" s="42"/>
       <c r="C57" s="51"/>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="58" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A58" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B58" s="31"/>
       <c r="C58" s="49"/>
@@ -24968,6 +24968,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100231ACC10D748F34BAA0C20ABFA72A7EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b60ada5ef74d917189c377d37311689">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a56c8121-053f-455f-842b-cd566811d075" xmlns:ns3="76f06672-c643-4888-a225-c4422b0e89ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f62d863a5068cb9de04048c4fc264cf7" ns2:_="" ns3:_="">
     <xsd:import namespace="a56c8121-053f-455f-842b-cd566811d075"/>
@@ -25150,22 +25165,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F950C44-5D9B-4216-BB47-9736F024226A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C37A5DE0-9FD1-4721-9C30-3A5B42A32EC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25182,21 +25199,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F950C44-5D9B-4216-BB47-9736F024226A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>